--- a/831MarketingAnalytics/Project/831MarketingProject/output/cluster_named_summary.xlsx
+++ b/831MarketingAnalytics/Project/831MarketingProject/output/cluster_named_summary.xlsx
@@ -648,14 +648,10 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>High Engagement, High Success</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Replicate success and engage further.</t>
-        </is>
-      </c>
+          <t>Undefined Cluster</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
